--- a/实验1/实验一.xlsx
+++ b/实验1/实验一.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Course\计算机系统结构\实验报告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Course\ComputerSystemStructure\实验报告\实验1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF45AA7-0A41-4803-9E02-F5EE10B97F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E876472-D310-49C7-9F16-DF4FBD37A1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>percent</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>threads</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parallel_time/threads</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,12 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -403,11 +406,12 @@
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.21875" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,13 +425,16 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>25</v>
       </c>
@@ -441,15 +448,19 @@
         <v>32.979467999999997</v>
       </c>
       <c r="E2">
+        <f>PRODUCT(D2* 1/B2)</f>
+        <v>32.979467999999997</v>
+      </c>
+      <c r="F2">
         <f>SUM(C2:D2)</f>
         <v>44.776285000000001</v>
       </c>
-      <c r="F2">
-        <f>PRODUCT(C2:C2, 1/D2:D2)</f>
+      <c r="G2">
+        <f>PRODUCT(C2:C2, 1/E2:E2)</f>
         <v>0.35770185862306819</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>25</v>
       </c>
@@ -463,15 +474,19 @@
         <v>32.895749000000002</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E23" si="0">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E23" si="0">PRODUCT(D3* 1/B3)</f>
+        <v>16.447874500000001</v>
+      </c>
+      <c r="F3">
+        <f>SUM(C3:D3)</f>
         <v>44.675701000000004</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F23" si="1">PRODUCT(C3:C3, 1/D3:D3)</f>
-        <v>0.35809952222094105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G23" si="1">PRODUCT(C3:C3, 1/E3:E3)</f>
+        <v>0.71619904444188209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>25</v>
       </c>
@@ -486,14 +501,18 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
+        <v>8.2244799999999998</v>
+      </c>
+      <c r="F4">
+        <f>SUM(C4:D4)</f>
         <v>44.683211999999997</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>0.35823821080481683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.4329528432192673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>25</v>
       </c>
@@ -508,14 +527,18 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
+        <v>5.3670913333333337</v>
+      </c>
+      <c r="F5">
+        <f>SUM(C5:D5)</f>
         <v>43.989893000000002</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>0.36603765018842604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2.1962259011305565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>25</v>
       </c>
@@ -530,14 +553,18 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
+        <v>4.4627606249999996</v>
+      </c>
+      <c r="F6">
+        <f>SUM(C6:D6)</f>
         <v>48.043988999999996</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>0.345691407098493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.765531256787944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>25</v>
       </c>
@@ -552,14 +579,18 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
+        <v>2.7420202499999999</v>
+      </c>
+      <c r="F7">
+        <f>SUM(C7:D7)</f>
         <v>44.681083999999998</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0.35791253425887959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4.2949504111065551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>25</v>
       </c>
@@ -574,14 +605,18 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
+        <v>2.0563666875000002</v>
+      </c>
+      <c r="F8">
+        <f>SUM(C8:D8)</f>
         <v>44.692158000000006</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>0.35834717221366191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5.7335547554185906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>50</v>
       </c>
@@ -596,14 +631,18 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
+        <v>21.936975</v>
+      </c>
+      <c r="F9">
+        <f>SUM(C9:D9)</f>
         <v>45.594144</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <f t="shared" si="1"/>
         <v>1.0784152783143528</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>50</v>
       </c>
@@ -618,14 +657,18 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
+        <v>11.110507</v>
+      </c>
+      <c r="F10">
+        <f>SUM(C10:D10)</f>
         <v>45.837001000000001</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>1.0627771981962659</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.1255543963925319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>50</v>
       </c>
@@ -640,14 +683,18 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
+        <v>5.5704694999999997</v>
+      </c>
+      <c r="F11">
+        <f>SUM(C11:D11)</f>
         <v>46.490196999999995</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>1.0864577483100841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>4.3458309932403365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>50</v>
       </c>
@@ -662,14 +709,18 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
+        <v>3.6561520000000001</v>
+      </c>
+      <c r="F12">
+        <f>SUM(C12:D12)</f>
         <v>45.524704999999997</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>1.0752558518719499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>6.4515351112316992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>50</v>
       </c>
@@ -684,14 +735,18 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
+        <v>2.7419702500000001</v>
+      </c>
+      <c r="F13">
+        <f>SUM(C13:D13)</f>
         <v>45.570098999999999</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>1.0774340549464385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>8.6194724395715081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>50</v>
       </c>
@@ -706,14 +761,18 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
+        <v>1.8281066666666668</v>
+      </c>
+      <c r="F14">
+        <f>SUM(C14:D14)</f>
         <v>45.576931000000002</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>1.0776017354931879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>12.931220825918254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>50</v>
       </c>
@@ -728,14 +787,18 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
+        <v>1.3710550625</v>
+      </c>
+      <c r="F15">
+        <f>SUM(C15:D15)</f>
         <v>45.488168999999999</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>1.0735932788257365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>17.177492461211784</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>75</v>
       </c>
@@ -750,14 +813,18 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
+        <v>10.971268999999999</v>
+      </c>
+      <c r="F16">
+        <f>SUM(C16:D16)</f>
         <v>46.310915000000001</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <f t="shared" si="1"/>
         <v>3.2211083330469794</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>75</v>
       </c>
@@ -772,14 +839,18 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
+        <v>5.4827339999999998</v>
+      </c>
+      <c r="F17">
+        <f>SUM(C17:D17)</f>
         <v>46.362467000000002</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>3.2280427064307702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>6.4560854128615404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>75</v>
       </c>
@@ -794,14 +865,18 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
+        <v>2.7422802499999999</v>
+      </c>
+      <c r="F18">
+        <f>SUM(C18:D18)</f>
         <v>46.394834000000003</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>3.2295853970432091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>12.918341588172837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>75</v>
       </c>
@@ -816,14 +891,18 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
+        <v>1.8783581666666667</v>
+      </c>
+      <c r="F19">
+        <f>SUM(C19:D19)</f>
         <v>47.228239000000002</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="1"/>
-        <v>3.1905603022639717</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>19.143361813583834</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>75</v>
       </c>
@@ -838,14 +917,18 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
+        <v>1.3717088749999999</v>
+      </c>
+      <c r="F20">
+        <f>SUM(C20:D20)</f>
         <v>46.396918999999997</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="1"/>
-        <v>3.2280216893690361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>25.824173514952289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>75</v>
       </c>
@@ -860,14 +943,18 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
+        <v>0.91387524999999992</v>
+      </c>
+      <c r="F21">
+        <f>SUM(C21:D21)</f>
         <v>46.338318000000001</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>3.2254416015752696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>38.705299218903242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>75</v>
       </c>
@@ -882,15 +969,19 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
+        <v>0.68533333750000003</v>
+      </c>
+      <c r="F22">
+        <f>SUM(C22:D22)</f>
         <v>46.394976399999997</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="1"/>
-        <v>3.2310593492761468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>51.696949588418349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>100</v>
       </c>
       <c r="B23">
@@ -904,9 +995,13 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
+        <v>4.8799999999999999E-4</v>
+      </c>
+      <c r="F23">
+        <f>SUM(C23:D23)</f>
         <v>47.087351999999996</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <f t="shared" si="1"/>
         <v>96489.475409836072</v>
       </c>
